--- a/biology/Zoologie/Eueides_lampeto/Eueides_lampeto.xlsx
+++ b/biology/Zoologie/Eueides_lampeto/Eueides_lampeto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides lampeto est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Eueides.
 </t>
@@ -511,84 +523,92 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eueides lampeto a été décrit par Henry Walter Bates en 1862[1].
-Étymologie
-Lampeto était une des amazones de la mythologie grecque.
-Sous-espèces
-Eueides  lampeto lampeto au Brésil
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides lampeto a été décrit par Henry Walter Bates en 1862.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lampeto était une des amazones de la mythologie grecque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eueides  lampeto lampeto au Brésil
 Eueides lampeto acacetes Hewitson, 1869 ;  en Équateur.
 Eueides lampeto apicalis Röber, 1927 ;  en Équateur.
-Eueides lampeto brownsbergensis Gernaat et Beckles, 2010, au Surinam[2].
+Eueides lampeto brownsbergensis Gernaat et Beckles, 2010, au Surinam.
 Eueides lampeto carbo Seitz, 1913 ;  en Équateur.
 Eueides lampeto concisa Lamas, 1985 ; au Pérou.
 Eueides lampeto copiosus Strichel, 1906; en Guyane française.
-Eueides lampeto nigrofulva Kaye, 1906 ; en Guyana[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eueides_lampeto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon orange et marron d'une envergure d'environ 70 mm[3].Le dessus des ailes antérieures est orange avec l'apex marron et une bande marron partant de la base jusqu'au milieu de l'aile. Les ailes postérieures sont bordées de marron ponctué de blanc et cette marge marron est doublée d'une bande de longues taches marron, bien séparées ou touchant presque la bande marginale.
-Le revers est semblable en plus terne
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eueides_lampeto</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Ses plantes hôtes sont des Granadilla  (Passifloraceae[4].
-</t>
+Eueides lampeto nigrofulva Kaye, 1906 ; en Guyana.</t>
         </is>
       </c>
     </row>
@@ -613,16 +633,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon orange et marron d'une envergure d'environ 70 mm.Le dessus des ailes antérieures est orange avec l'apex marron et une bande marron partant de la base jusqu'au milieu de l'aile. Les ailes postérieures sont bordées de marron ponctué de blanc et cette marge marron est doublée d'une bande de longues taches marron, bien séparées ou touchant presque la bande marginale.
+Le revers est semblable en plus terne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Granadilla  (Passifloraceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Amérique du Sud, depuis la Guyane, la Guyana et le Surinam jusqu'au versant est des Andes en Équateur, au Brésil, et au Pérou[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Amérique du Sud, depuis la Guyane, la Guyana et le Surinam jusqu'au versant est des Andes en Équateur, au Brésil, et au Pérou.
 Sur les autres projets Wikimedia :
 Eueides lampeto, sur Wikimedia CommonsEueides lampeto, sur Wikispecies
-Biotope
-Il réside dans la forêt amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lampeto</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt amazonienne.
 </t>
         </is>
       </c>
